--- a/Project plan.xlsx
+++ b/Project plan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>feature</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Marti</t>
+  </si>
+  <si>
+    <t>import external data</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
@@ -445,21 +448,21 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8</v>
+      <c r="D2" s="1">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -467,27 +470,39 @@
       <c r="C3" s="1">
         <v>8</v>
       </c>
+      <c r="D3" s="1">
+        <v>16</v>
+      </c>
       <c r="E3" s="1">
         <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>8</v>
       </c>
+      <c r="D4" s="1">
+        <v>16</v>
+      </c>
       <c r="E4" s="1">
         <v>8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -501,10 +516,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>8</v>
@@ -515,7 +530,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -527,37 +542,43 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
       </c>
       <c r="E10" s="1">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
@@ -571,10 +592,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -585,21 +606,27 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
       </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
       <c r="E13" s="1">
         <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -608,6 +635,20 @@
         <v>4</v>
       </c>
       <c r="E14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
         <v>4</v>
       </c>
     </row>

--- a/Project plan.xlsx
+++ b/Project plan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
-  <si>
-    <t>feature</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>implemented by</t>
   </si>
@@ -36,9 +33,6 @@
     <t>Test Estd time</t>
   </si>
   <si>
-    <t>Registration and login of users;</t>
-  </si>
-  <si>
     <t>Search by product name / type;</t>
   </si>
   <si>
@@ -57,21 +51,6 @@
     <t>Engine + core logic</t>
   </si>
   <si>
-    <t>Order model + configuration</t>
-  </si>
-  <si>
-    <t>Suppliers model + configuration</t>
-  </si>
-  <si>
-    <t>Categories model + configuration</t>
-  </si>
-  <si>
-    <t>Client model + configuration</t>
-  </si>
-  <si>
-    <t>Product model + configuration</t>
-  </si>
-  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -82,12 +61,57 @@
   </si>
   <si>
     <t>import external data</t>
+  </si>
+  <si>
+    <t>(Not implemented)</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>Report orders</t>
+  </si>
+  <si>
+    <t>Report products</t>
+  </si>
+  <si>
+    <t>Registration, login &amp; logout of users;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Features </t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>actualy implemented by</t>
+  </si>
+  <si>
+    <t>Client model + configuration (Service)</t>
+  </si>
+  <si>
+    <t>Product model + configuration (Service)</t>
+  </si>
+  <si>
+    <t>Order model + configuration (Service)</t>
+  </si>
+  <si>
+    <t>Suppliers model + configuration (Service)</t>
+  </si>
+  <si>
+    <t>Categories model + configuration (Service)</t>
+  </si>
+  <si>
+    <t>Town model + configuration (Service)</t>
+  </si>
+  <si>
+    <t>Address model + configuration (Service)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -224,7 +248,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -401,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,251 +433,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="46.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="H9" s="1">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
         <v>6</v>
       </c>
-      <c r="E10" s="1">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-    </row>
+    </row>
+    <row r="19" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project plan.xlsx
+++ b/Project plan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -435,24 +435,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="46.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -501,7 +501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,7 +524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -541,7 +541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -558,7 +558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -571,11 +571,17 @@
       <c r="E6" s="1">
         <v>8</v>
       </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
       <c r="G6" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -588,11 +594,17 @@
       <c r="E7" s="1">
         <v>8</v>
       </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
       <c r="G7" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -606,7 +618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
@@ -620,7 +632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -634,7 +646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -654,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -674,7 +686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -694,7 +706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -717,7 +729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -730,11 +742,17 @@
       <c r="E16" s="1">
         <v>4</v>
       </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
       <c r="G16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -754,7 +772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -768,7 +786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
@@ -782,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/Project plan.xlsx
+++ b/Project plan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>implemented by</t>
   </si>
@@ -106,12 +106,15 @@
   </si>
   <si>
     <t>Address model + configuration (Service)</t>
+  </si>
+  <si>
+    <t>AddOrderCommand (It's kind of shopping cart but not quite)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,23 +439,23 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="46.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -478,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -501,7 +504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -524,24 +527,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="1">
         <v>8</v>
       </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
       <c r="G4" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -558,7 +567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -604,7 +613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -618,7 +627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
@@ -632,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -646,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -666,7 +675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -677,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="1">
         <v>4</v>
@@ -686,7 +695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -697,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14" s="1">
         <v>4</v>
@@ -706,7 +715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -720,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="1">
         <v>4</v>
@@ -729,7 +738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -752,7 +761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -772,7 +781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -786,7 +795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
@@ -800,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
